--- a/data/trans_orig/P14C15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C68E31E-3A24-47A7-BD42-BE7AD4C0075D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47BEEA1-64F6-4442-A800-A8EF781898D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{066D3145-3BA8-4BD3-A310-7AD2A5BE5648}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{204869C0-97F3-49B9-B296-2ADDBD42DF74}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
   <si>
     <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>42,87%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>52,16%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>45,52%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>11,61%</t>
   </si>
   <si>
-    <t>46,69%</t>
+    <t>46,63%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>38,65%</t>
+    <t>38,51%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -170,22 +170,22 @@
     <t>80,7%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>21,26%</t>
   </si>
   <si>
     <t>55,94%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>78,74%</t>
   </si>
   <si>
     <t>47,09%</t>
@@ -194,7 +194,7 @@
     <t>27,83%</t>
   </si>
   <si>
-    <t>71,51%</t>
+    <t>71,19%</t>
   </si>
   <si>
     <t>52,91%</t>
@@ -203,7 +203,7 @@
     <t>16,23%</t>
   </si>
   <si>
-    <t>66,1%</t>
+    <t>65,28%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -212,13 +212,13 @@
     <t>81,15%</t>
   </si>
   <si>
-    <t>24,28%</t>
+    <t>22,26%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>53,95%</t>
+    <t>55,96%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -227,39 +227,45 @@
     <t>18,85%</t>
   </si>
   <si>
-    <t>75,72%</t>
+    <t>77,74%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
     <t>46,05%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
     <t>12,99%</t>
   </si>
   <si>
@@ -317,10 +323,10 @@
     <t>71,07%</t>
   </si>
   <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>13,7%</t>
@@ -341,10 +347,10 @@
     <t>23,65%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -359,7 +365,7 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>27,0%</t>
+    <t>26,79%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -368,25 +374,25 @@
     <t>94,1%</t>
   </si>
   <si>
-    <t>63,67%</t>
+    <t>68,29%</t>
   </si>
   <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>75,26%</t>
   </si>
   <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -395,106 +401,112 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>32,79%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>18,17%</t>
+    <t>15,49%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>36,33%</t>
+    <t>31,71%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>66,71%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>80,67%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>17,09%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -909,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E68EC92-B29E-48CB-8038-C6634A724409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61AB243-2CE4-4D75-A7E5-7A8E476D45D6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1875,7 +1887,7 @@
         <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>11</v>
@@ -1887,10 +1899,10 @@
         <v>3730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1923,13 +1935,13 @@
         <v>1030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1938,13 +1950,13 @@
         <v>1030</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,7 +2063,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2078,13 +2090,13 @@
         <v>2872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2093,13 +2105,13 @@
         <v>3665</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2141,13 @@
         <v>2352</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2144,13 +2156,13 @@
         <v>2352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,7 +2198,7 @@
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2195,13 +2207,13 @@
         <v>1012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,7 +2269,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2269,10 +2281,10 @@
         <v>6778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -2284,13 +2296,13 @@
         <v>6940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -2299,13 +2311,13 @@
         <v>13718</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2332,13 @@
         <v>1076</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2335,13 +2347,13 @@
         <v>3489</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2350,13 +2362,13 @@
         <v>4565</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,7 +2389,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2386,13 +2398,13 @@
         <v>1020</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2401,13 +2413,13 @@
         <v>1020</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2475,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2475,10 +2487,10 @@
         <v>12498</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>11</v>
@@ -2490,13 +2502,13 @@
         <v>9340</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -2505,13 +2517,13 @@
         <v>21837</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2541,13 +2553,13 @@
         <v>981</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2556,13 +2568,13 @@
         <v>981</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2589,13 @@
         <v>783</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2592,13 +2604,13 @@
         <v>5414</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -2607,13 +2619,13 @@
         <v>6197</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2693,13 @@
         <v>31736</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -2696,13 +2708,13 @@
         <v>34143</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -2711,13 +2723,13 @@
         <v>65879</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2744,13 @@
         <v>1941</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -2747,13 +2759,13 @@
         <v>12784</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -2762,13 +2774,13 @@
         <v>14725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2795,13 @@
         <v>1784</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -2798,13 +2810,13 @@
         <v>9516</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -2813,13 +2825,13 @@
         <v>11299</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,7 +2887,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47BEEA1-64F6-4442-A800-A8EF781898D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9298E9D6-83ED-4E0B-98A0-C0AE246D4498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{204869C0-97F3-49B9-B296-2ADDBD42DF74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C17C70D8-2375-4DAA-B0B7-C2354522B1A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
-  <si>
-    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="154">
+  <si>
+    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>42,87%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
   </si>
   <si>
     <t>52,16%</t>
   </si>
   <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>45,52%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>11,61%</t>
   </si>
   <si>
-    <t>46,63%</t>
+    <t>56,74%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>38,51%</t>
+    <t>42,03%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -170,22 +170,22 @@
     <t>80,7%</t>
   </si>
   <si>
-    <t>21,26%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>55,94%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>78,74%</t>
+    <t>79,41%</t>
   </si>
   <si>
     <t>47,09%</t>
@@ -194,7 +194,7 @@
     <t>27,83%</t>
   </si>
   <si>
-    <t>71,19%</t>
+    <t>71,13%</t>
   </si>
   <si>
     <t>52,91%</t>
@@ -203,7 +203,7 @@
     <t>16,23%</t>
   </si>
   <si>
-    <t>65,28%</t>
+    <t>64,69%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -212,13 +212,13 @@
     <t>81,15%</t>
   </si>
   <si>
-    <t>22,26%</t>
+    <t>20,3%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>55,96%</t>
+    <t>55,36%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -227,13 +227,13 @@
     <t>18,85%</t>
   </si>
   <si>
-    <t>77,74%</t>
+    <t>79,7%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>44,04%</t>
+    <t>44,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -242,64 +242,61 @@
     <t>73,4%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>19,17%</t>
+    <t>21,16%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>78,07%</t>
-  </si>
-  <si>
     <t>21,64%</t>
   </si>
   <si>
+    <t>78,84%</t>
+  </si>
+  <si>
     <t>Jaen</t>
   </si>
   <si>
     <t>46,05%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>52,13%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>85,13%</t>
+    <t>85,49%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>65,31%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -308,49 +305,49 @@
     <t>86,3%</t>
   </si>
   <si>
-    <t>38,55%</t>
+    <t>46,51%</t>
   </si>
   <si>
     <t>60,62%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>61,45%</t>
+    <t>53,49%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -359,13 +356,13 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>47,98%</t>
+    <t>38,8%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>26,79%</t>
+    <t>27,12%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -374,25 +371,25 @@
     <t>94,1%</t>
   </si>
   <si>
-    <t>68,29%</t>
+    <t>72,63%</t>
   </si>
   <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>75,26%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -401,112 +398,103 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>15,49%</t>
+    <t>17,06%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>31,71%</t>
+    <t>27,37%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>5,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61AB243-2CE4-4D75-A7E5-7A8E476D45D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBF85F9-D545-4AF6-9DB9-7A0D661A041B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1887,7 +1875,7 @@
         <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>11</v>
@@ -1899,10 +1887,10 @@
         <v>3730</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1935,13 +1923,13 @@
         <v>1030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1950,13 +1938,13 @@
         <v>1030</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2051,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2078,13 @@
         <v>2872</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2105,13 +2093,13 @@
         <v>3665</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2129,13 @@
         <v>2352</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2156,13 +2144,13 @@
         <v>2352</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2186,7 @@
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2207,13 +2195,13 @@
         <v>1012</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2257,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2281,10 +2269,10 @@
         <v>6778</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -2296,13 +2284,13 @@
         <v>6940</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -2311,13 +2299,13 @@
         <v>13718</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2320,13 @@
         <v>1076</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2347,13 +2335,13 @@
         <v>3489</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2362,13 +2350,13 @@
         <v>4565</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,7 +2377,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2398,13 +2386,13 @@
         <v>1020</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2413,13 +2401,13 @@
         <v>1020</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2463,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2487,10 +2475,10 @@
         <v>12498</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>11</v>
@@ -2502,13 +2490,13 @@
         <v>9340</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -2517,13 +2505,13 @@
         <v>21837</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,7 +2532,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2553,13 +2541,13 @@
         <v>981</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2568,13 +2556,13 @@
         <v>981</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2577,13 @@
         <v>783</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2604,13 +2592,13 @@
         <v>5414</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -2619,13 +2607,13 @@
         <v>6197</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2681,13 @@
         <v>31736</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -2708,13 +2696,13 @@
         <v>34143</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -2723,13 +2711,13 @@
         <v>65879</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2732,13 @@
         <v>1941</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -2759,13 +2747,13 @@
         <v>12784</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -2774,13 +2762,13 @@
         <v>14725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2783,13 @@
         <v>1784</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -2810,13 +2798,13 @@
         <v>9516</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -2825,13 +2813,13 @@
         <v>11299</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2875,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
